--- a/FM Analysis/dropped_warehouses.xlsx
+++ b/FM Analysis/dropped_warehouses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,9 +1255,23 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="n">
+        <v>2176</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>417-2176-Delhi</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr"/>
+      <c r="B59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="n">
         <v>2140</v>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>452-2140-Delhi</t>
         </is>
